--- a/biology/Zoologie/Cylindrophis_opisthorhodus/Cylindrophis_opisthorhodus.xlsx
+++ b/biology/Zoologie/Cylindrophis_opisthorhodus/Cylindrophis_opisthorhodus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cylindrophis opisthorhodus est une espèce de serpents de la famille des Cylindrophiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cylindrophis opisthorhodus est une espèce de serpents de la famille des Cylindrophiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Petites îles de la Sonde en Indonésie[1]. Elle se rencontre à Lombok, à Sumbawa, à Florès et à Komodo.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Petites îles de la Sonde en Indonésie. Elle se rencontre à Lombok, à Sumbawa, à Florès et à Komodo.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le spécimen décrit par Boulenger mesurait 230 mm.
 </t>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Boulenger, 1897 : A List of the Reptiles and batrachians collected by Mr. Alfred Everett in Lombok, Flores, Sumba, and Savu, with Descriptions of new Species. Annals and Magazine of Natural History, ser. 6, vol. 19, p. 503-509 (texte intégral).</t>
         </is>
